--- a/casedata/ApiTestCase.xlsx
+++ b/casedata/ApiTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="9930"/>
+    <workbookView windowWidth="19380" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>Get</t>
   </si>
   <si>
-    <t>${date}</t>
+    <t>data</t>
   </si>
   <si>
     <t>{"data":"1","errMsg":"0","errNo":"0"}</t>
@@ -69,7 +69,7 @@
     <t>application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>x=${date}&amp;y=2</t>
+    <t>x=|data|&amp;y=2</t>
   </si>
 </sst>
 </file>
@@ -77,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -106,6 +106,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -115,121 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,55 +250,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,120 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,26 +438,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +477,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,22 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/casedata/ApiTestCase.xlsx
+++ b/casedata/ApiTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="10350"/>
+    <workbookView windowWidth="24285" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>apiCaseName</t>
   </si>
@@ -45,31 +45,118 @@
     <t>case1</t>
   </si>
   <si>
-    <t>http://localhost:8080/countSerlvet</t>
+    <t>http://192.168.21.188:8080/wcs/bucket/query</t>
   </si>
   <si>
     <t>Http</t>
   </si>
   <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>{"data":"1","errMsg":"0","errNo":"0"}</t>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "60001",
+ "warehouseArea": "",
+ "bucketCode": "1003"
+}</t>
+  </si>
+  <si>
+    <t>{"receiveState":"success","message":"WMS-SUCCESS:成功","warehouseId":"60001","warehouseArea":"null","bucketCode":"1003","bucketState":"null","stopPoint":"null","robotJobId":"null","robotJobStatus":"null"}</t>
   </si>
   <si>
     <t>case2</t>
   </si>
   <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded</t>
-  </si>
-  <si>
-    <t>x=|data|&amp;y=2</t>
+    <t>{
+ "warehouseId": "60001",
+ "warehouseArea": "",
+ "bucketCode": ""
+}</t>
+  </si>
+  <si>
+    <t>{"receiveState":"failure","message":"WMS-ERR-03:货架编号格式不合法","warehouseId":"60001","warehouseArea":"","bucketCode":"","bucketState":"null","stopPoint":"null","robotJobId":"null","robotJobStatus":"null"}</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "60001",
+ "warehouseArea": "",
+ "bucketCode": "s*s"
+}</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "60001",
+ "warehouseArea": "",
+ "bucketCode": "111111111111111111111111111111111111111111111111111"
+}</t>
+  </si>
+  <si>
+    <t>{"receiveState":"failure","message":"WMS-ERR-03:货架编号格式不合法","warehouseId":"60001","warehouseArea":"","bucketCode":"111111111111111111111111111111111111111111111111111","bucketState":"null","stopPoint":"null","robotJobId":"null","robotJobStatus":"null"}</t>
+  </si>
+  <si>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "",
+ "warehouseArea": "",
+ "bucketCode": "1003"
+}</t>
+  </si>
+  <si>
+    <t>{"receiveState":"failure","message":"WMS-ERR-02:仓库编号格式不合法","warehouseId":"null","warehouseArea":"","bucketCode":"1003","bucketState":"null","stopPoint":"null","robotJobId":"null","robotJobStatus":"null"}</t>
+  </si>
+  <si>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "s*s",
+ "warehouseArea": "",
+ "bucketCode": "1003"
+}</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "1000",
+ "warehouseArea": "",
+ "bucketCode": "1003"
+}</t>
+  </si>
+  <si>
+    <t>{"receiveState":"failure","message":"WMS-ERR-41:仓库编号不存在","warehouseId":"1000","warehouseArea":"","bucketCode":"1003","bucketState":"null","stopPoint":"null","robotJobId":"null","robotJobStatus":"null"}</t>
+  </si>
+  <si>
+    <t>case8</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "60001",
+ "warehouseArea": "sss",
+ "bucketCode": "1003"
+}</t>
+  </si>
+  <si>
+    <t>case9</t>
+  </si>
+  <si>
+    <t>{
+ "warehouseId": "60001",
+ "warehouseArea": "11111111111111111111",
+ "bucketCode": "1003"
+}</t>
   </si>
 </sst>
 </file>
@@ -77,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +186,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -106,40 +209,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,67 +261,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,8 +298,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +331,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,175 +349,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,17 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +544,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +560,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,17 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,16 +642,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,127 +660,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,13 +1133,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -1058,7 +1148,7 @@
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1083,15 +1173,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:8">
+    <row r="2" ht="189" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -1100,40 +1190,198 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="189" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>3</v>
+    </row>
+    <row r="4" ht="148.5" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="243" spans="1:8">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="202.5" spans="1:8">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="148.5" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="189" spans="1:8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="148.5" spans="1:6">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="175.5" spans="1:6">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/countSerlvet"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:8080/countSerlvet"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B9" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://192.168.21.188:8080/wcs/bucket/query" tooltip="http://192.168.21.188:8080/wcs/bucket/query"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/casedata/ApiTestCase.xlsx
+++ b/casedata/ApiTestCase.xlsx
@@ -164,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -191,6 +191,79 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,50 +276,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,44 +292,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -536,15 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +569,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,13 +645,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,40 +666,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -708,25 +708,25 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,10 +741,10 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,22 +753,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
